--- a/protect_baltic/src/data/exampleData.xlsx
+++ b/protect_baltic/src/data/exampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilo\Documents\SOM\protect_baltic\src\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilo\Documents\SOM\protect_baltic\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A0493-5677-4337-B88C-C2A4003696C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD5A2D0-9193-4960-98FD-FDDC091D7CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="16980" windowWidth="23370" windowHeight="13065" xr2:uid="{06DB03A4-C3EF-4943-B257-3EBD6208D66D}"/>
+    <workbookView xWindow="-25845" yWindow="6975" windowWidth="21600" windowHeight="12645" firstSheet="3" activeTab="7" xr2:uid="{06DB03A4-C3EF-4943-B257-3EBD6208D66D}"/>
   </bookViews>
   <sheets>
     <sheet name="Measure ID" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14440786-9FC9-4A16-9518-06BF3C599D18}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC3C7A-D101-46A4-B22F-03394A8E3DFA}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
